--- a/dev/Statistica Descrittiva/Vari.xlsx
+++ b/dev/Statistica Descrittiva/Vari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portable\repo\edu\dev\Statistica Descrittiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B17D40-D87F-48EF-946E-136CE0B1C41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21919A47-8CE4-4ACC-86E2-868E6426CF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1AC9F55C-ADF6-457D-A467-D63897F8161A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t xml:space="preserve">Investimenti  </t>
   </si>
@@ -87,6 +87,57 @@
   </si>
   <si>
     <t xml:space="preserve">Risparmio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regioni   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piemonte </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lombardia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Veneto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liguria </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lazio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Puglia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Campania </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sicilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     xxx          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maschi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Femmine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricoltura   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industria    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servizi     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altre Attività </t>
   </si>
 </sst>
 </file>
@@ -440,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B2BA90-392B-410F-8887-807B8622BE28}">
-  <dimension ref="B2:X38"/>
+  <dimension ref="B2:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,7 +921,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>70</v>
       </c>
@@ -878,7 +929,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -928,7 +979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -978,7 +1029,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>1</v>
       </c>
@@ -1021,7 +1072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>2</v>
       </c>
@@ -1056,7 +1107,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>3</v>
       </c>
@@ -1064,7 +1115,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>4</v>
       </c>
@@ -1078,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>5</v>
       </c>
@@ -1091,8 +1142,35 @@
       <c r="K28">
         <v>500</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" t="s">
+        <v>23</v>
+      </c>
+      <c r="U28" t="s">
+        <v>24</v>
+      </c>
+      <c r="V28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>6</v>
       </c>
@@ -1105,8 +1183,35 @@
       <c r="K29" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="O29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="2">
+        <v>60202</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>125911</v>
+      </c>
+      <c r="R29" s="2">
+        <v>43439</v>
+      </c>
+      <c r="S29" s="2">
+        <v>28383</v>
+      </c>
+      <c r="T29" s="2">
+        <v>73555</v>
+      </c>
+      <c r="U29" s="2">
+        <v>10748</v>
+      </c>
+      <c r="V29" s="2">
+        <v>20568</v>
+      </c>
+      <c r="W29" s="2">
+        <v>28031</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>7</v>
       </c>
@@ -1120,7 +1225,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>8</v>
       </c>
@@ -1133,8 +1238,14 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>9</v>
       </c>
@@ -1147,8 +1258,14 @@
       <c r="K32" s="2">
         <v>9200</v>
       </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="2">
+        <v>60202</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>10</v>
       </c>
@@ -1161,8 +1278,14 @@
       <c r="K33" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="2">
+        <v>125911</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>11</v>
       </c>
@@ -1175,8 +1298,14 @@
       <c r="K34" s="2">
         <v>5400</v>
       </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="2">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>12</v>
       </c>
@@ -1189,29 +1318,114 @@
       <c r="K35" s="2">
         <v>6300</v>
       </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="O35" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="2">
+        <v>28383</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>13</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="O36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="2">
+        <v>73555</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="2">
+        <v>10748</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>15</v>
       </c>
       <c r="D38">
         <v>-10</v>
+      </c>
+      <c r="O38" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="2">
+        <v>20568</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" s="2">
+        <v>28031</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1165</v>
+      </c>
+      <c r="I40">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="2">
+        <v>5259</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="2">
+        <v>7678</v>
+      </c>
+      <c r="I42" s="2">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43">
+        <v>890</v>
+      </c>
+      <c r="I43">
+        <v>910</v>
       </c>
     </row>
   </sheetData>
